--- a/ 1revision/FINAL450.xlsx
+++ b/ 1revision/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\All Programming\ 1revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F3BB8F-029B-4FDA-8715-EE4D36F70EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A77F89-78EC-498F-B624-5020877A8685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2265" yWindow="-120" windowWidth="18345" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -195,18 +195,12 @@
     <t>Check whether a String is Palindrome or not</t>
   </si>
   <si>
-    <t>Find Duplicate characters in a string</t>
-  </si>
-  <si>
     <t>Why strings are immutable in Java?</t>
   </si>
   <si>
     <t>Write a Code to check whether one string is a rotation of another</t>
   </si>
   <si>
-    <t>Write a Program to check whether a string is a valid shuffle of two strings or not</t>
-  </si>
-  <si>
     <t>Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Print all the permutations of the given string</t>
   </si>
   <si>
-    <t>Split the Binary string into two substring with equal 0’s and 1’s</t>
-  </si>
-  <si>
     <t>Word Wrap Problem [VERY IMP].</t>
   </si>
   <si>
@@ -228,9 +219,6 @@
     <t>Find next greater number with same set of digits. [Very Very IMP]</t>
   </si>
   <si>
-    <t>Balanced Parenthesis problem.[Imp]</t>
-  </si>
-  <si>
     <t>Word break Problem[ Very Imp]</t>
   </si>
   <si>
@@ -258,15 +246,6 @@
     <t>Boyer Moore Algorithm for Pattern Searching.</t>
   </si>
   <si>
-    <t>Converting Roman Numerals to Decimal</t>
-  </si>
-  <si>
-    <t>Longest Common Prefix</t>
-  </si>
-  <si>
-    <t>Number of flips to make binary string alternate</t>
-  </si>
-  <si>
     <t>Find the first repeated word in string.</t>
   </si>
   <si>
@@ -315,12 +294,6 @@
     <t>Searching &amp; Sorting</t>
   </si>
   <si>
-    <t>Find first and last positions of an element in a sorted array</t>
-  </si>
-  <si>
-    <t>Find a Fixed Point (Value equal to index) in a given array</t>
-  </si>
-  <si>
     <t>Search in a rotated sorted array</t>
   </si>
   <si>
@@ -330,33 +303,12 @@
     <t>Maximum and minimum of an array using minimum number of comparisons</t>
   </si>
   <si>
-    <t>Optimum location of point to minimize total distance</t>
-  </si>
-  <si>
-    <t>Find the repeating and the missing</t>
-  </si>
-  <si>
-    <t>find majority element</t>
-  </si>
-  <si>
     <t>Searching in an array where adjacent differ by at most k</t>
   </si>
   <si>
-    <t>find a pair with a given difference</t>
-  </si>
-  <si>
-    <t>find four elements that sum to a given value</t>
-  </si>
-  <si>
     <t>maximum sum such that no 2 elements are adjacent</t>
   </si>
   <si>
-    <t>Count triplet with sum smaller than a given value</t>
-  </si>
-  <si>
-    <t>merge 2 sorted arrays</t>
-  </si>
-  <si>
     <t>print all subarrays with 0 sum</t>
   </si>
   <si>
@@ -465,15 +417,9 @@
     <t>Quicksort for Linked Lists.[Very Important]</t>
   </si>
   <si>
-    <t>Check if a linked list is a circular linked list.</t>
-  </si>
-  <si>
     <t>Split a Circular linked list into two halves.</t>
   </si>
   <si>
-    <t>Write a Program to check whether the Singly Linked list is a palindrome or not.</t>
-  </si>
-  <si>
     <t>Deletion from a Circular Linked List.</t>
   </si>
   <si>
@@ -504,9 +450,6 @@
     <t>Flatten a Linked List</t>
   </si>
   <si>
-    <t>Sort a LL of 0's, 1's and 2's</t>
-  </si>
-  <si>
     <t>Clone a linked list with next and random pointer</t>
   </si>
   <si>
@@ -531,21 +474,9 @@
     <t>Binary Trees</t>
   </si>
   <si>
-    <t>level order traversal</t>
-  </si>
-  <si>
     <t>Reverse Level Order traversal</t>
   </si>
   <si>
-    <t>Height of a tree</t>
-  </si>
-  <si>
-    <t>Diameter of a tree</t>
-  </si>
-  <si>
-    <t>Mirror of a tree</t>
-  </si>
-  <si>
     <t>Inorder Traversal of a tree both using recursion and Iteration</t>
   </si>
   <si>
@@ -558,18 +489,9 @@
     <t>Left View of a tree</t>
   </si>
   <si>
-    <t>Right View of Tree</t>
-  </si>
-  <si>
     <t>Top View of a tree</t>
   </si>
   <si>
-    <t>Bottom View of a tree</t>
-  </si>
-  <si>
-    <t>Zig-Zag traversal of a binary tree</t>
-  </si>
-  <si>
     <t>Check if a tree is balanced or not</t>
   </si>
   <si>
@@ -606,9 +528,6 @@
     <t>Check if 2 trees are mirror or not</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum of Nodes on the Longest path from root to leaf node </t>
-  </si>
-  <si>
     <t>Check if given graph is tree or not.  [ IMP ]</t>
   </si>
   <si>
@@ -684,18 +603,9 @@
     <t>Check whether BST contains Dead end</t>
   </si>
   <si>
-    <t>Largest BST in a Binary Tree [ V.V.V.V.V IMP ]</t>
-  </si>
-  <si>
-    <t>Flatten BST to sorted list</t>
-  </si>
-  <si>
     <t>Greedy</t>
   </si>
   <si>
-    <t>Activity Selection Problem</t>
-  </si>
-  <si>
     <t>Water Connection Problem</t>
   </si>
   <si>
@@ -846,9 +756,6 @@
     <t>Implement "N" stacks in an Array</t>
   </si>
   <si>
-    <t>Check the expression has valid or Balanced parenthesis or not.</t>
-  </si>
-  <si>
     <t>Reverse a String using Stack</t>
   </si>
   <si>
@@ -861,24 +768,9 @@
     <t>Arithmetic Expression evaluation</t>
   </si>
   <si>
-    <t>Implement a method to insert an element at its bottom without using any other data structure.</t>
-  </si>
-  <si>
-    <t>Reverse a stack using recursion</t>
-  </si>
-  <si>
-    <t>Sort a Stack using recursion</t>
-  </si>
-  <si>
-    <t>Merge Overlapping Intervals</t>
-  </si>
-  <si>
     <t>Largest rectangular Area in Histogram</t>
   </si>
   <si>
-    <t>Length of the Longest Valid Substring</t>
-  </si>
-  <si>
     <t>Expression contains redundant bracket or not</t>
   </si>
   <si>
@@ -891,9 +783,6 @@
     <t>Stack Permutations (Check if an array is stack permutation of other)</t>
   </si>
   <si>
-    <t xml:space="preserve">Implement Queue using Stack  </t>
-  </si>
-  <si>
     <t>Implement "n" queue in an array</t>
   </si>
   <si>
@@ -951,9 +840,6 @@
     <t>Maximum of all subarrays of size k.</t>
   </si>
   <si>
-    <t>“k” largest element in an array</t>
-  </si>
-  <si>
     <t>Kth smallest and largest element in an unsorted array</t>
   </si>
   <si>
@@ -975,9 +861,6 @@
     <t>Smallest range in “K” Lists</t>
   </si>
   <si>
-    <t>Median in a stream of Integers</t>
-  </si>
-  <si>
     <t>Check if a Binary Tree is Heap</t>
   </si>
   <si>
@@ -1128,9 +1011,6 @@
     <t>Dynamic Programming</t>
   </si>
   <si>
-    <t>Coin ChangeProblem</t>
-  </si>
-  <si>
     <t>Knapsack Problem</t>
   </si>
   <si>
@@ -1386,9 +1266,6 @@
     <t>The celebrity Problem                                                                              (done)</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation of Postfix expression            (samjh aa gaya hain bas code karna hain) stack ka use hoga </t>
-  </si>
-  <si>
     <t>14 janurary ka arget hain solve karna hain pura  chhahe jo marzi hooooo</t>
   </si>
   <si>
@@ -1429,6 +1306,129 @@
   </si>
   <si>
     <t>Find the middle Element of a linked list.  (done )</t>
+  </si>
+  <si>
+    <t>Find first and last positions of an element in a sorted array   (done at leetcode also see the txt file)</t>
+  </si>
+  <si>
+    <t>Find a Fixed Point (Value equal to index) in a given array    (done at leetcode and  see the search&amp;sortingg txt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the repeating and the missing   (done ) </t>
+  </si>
+  <si>
+    <t>find majority element   (done at leet code also see the txt )</t>
+  </si>
+  <si>
+    <t>find four elements that sum to a given value    (done but TLE aa raha hain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimum location of point to minimize total distance       (bilkul samajh nahi aya ) </t>
+  </si>
+  <si>
+    <t>532. K-diff Pairs in an Array   (done )</t>
+  </si>
+  <si>
+    <t>Count triplet with sum smaller than a given value   (done leetcode and folder  )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merge 2 sorted arrays    (done ) </t>
+  </si>
+  <si>
+    <t>Sum of Nodes on the Longest path from root to leaf node   (done at leetcode and folder )</t>
+  </si>
+  <si>
+    <t>Zig-Zag traversal of a binary tree  (done at leet code and folder also)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest BST in a Binary Tree [ V.V.V.V.V IMP ]     (done at  geekforgeeks and also in  tree folder ) </t>
+  </si>
+  <si>
+    <t>696. Count Binary Substrings</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis problem.[Imp]    (done at leed code also see the string folder )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find Duplicate characters in a string     (done see leetcode ) </t>
+  </si>
+  <si>
+    <t>Write a Program to check whether a string is a valid shuffle of two strings or not (done at leetcode see folr)</t>
+  </si>
+  <si>
+    <t>Converting Roman Numerals to Decimal (done at leetcode and also see the string folder)</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix    (leetcode prob(14)  AND STRING FOLDER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1888. Minimum Number of Flips to Make the Binary String Alternating   (done at leetcode ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">104. Maximum Depth of Binary Tree (done at leet code and in folder ) </t>
+  </si>
+  <si>
+    <t>543. Diameter of Binary Tree    (doen at leetcode and in tree foldeer)</t>
+  </si>
+  <si>
+    <t>Mirror of a tree  (226. Invert Binary Tree also done in tree folder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 199. Binary Tree Right Side View   (done at lettcode and in folder )</t>
+  </si>
+  <si>
+    <t>Bottom View of a tree   (ye question samjh nahi aaay )</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal   (done in folder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215. Kth Largest Element in an Array   (done at leetcode ) </t>
+  </si>
+  <si>
+    <t>Median in a stream of Integers   ( hard bad me karta hun )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coin ChangeProblem   (done at leetcode 322. Coin Change) </t>
+  </si>
+  <si>
+    <t>Check the expression has valid or Balanced parenthesis or not.   (done )</t>
+  </si>
+  <si>
+    <t>Evaluation of Postfix expression      or 150. Evaluate Reverse Polish Notation (done at leetcode good questio</t>
+  </si>
+  <si>
+    <t>Implement a method to insert an element at its bottom without using any other data structure.  (normal hi hain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232. Implement Queue using Stacks       ( done at leetcode ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a stack using recursion   (ho jayega ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a Stack using recursion          (karta hun bad me dought aa rahahain thora sa ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merge Overlapping Intervals    (done at leetcode ) </t>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses                (done at leetcode )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten BST to sorted list </t>
+  </si>
+  <si>
+    <t>141. Linked List Cycle                                                  (done at leetcode )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234. Palindrome Linked List                  done at leetcode </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort a LL of 0's, 1's and 2's    </t>
+  </si>
+  <si>
+    <t>452. Minimum Number of Arrows to Burst Balloons  (   done at leetcocode)</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView tabSelected="1" topLeftCell="B232" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="10" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="21">
@@ -2447,7 +2447,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>56</v>
+        <v>441</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>4</v>
@@ -2458,7 +2458,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>4</v>
@@ -2469,7 +2469,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
@@ -2480,7 +2480,7 @@
         <v>53</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>59</v>
+        <v>442</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>4</v>
@@ -2491,7 +2491,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>4</v>
@@ -2502,7 +2502,7 @@
         <v>53</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
@@ -2513,7 +2513,7 @@
         <v>53</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
@@ -2524,7 +2524,7 @@
         <v>53</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -2535,7 +2535,7 @@
         <v>53</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -2546,7 +2546,7 @@
         <v>53</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>63</v>
+        <v>439</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>4</v>
@@ -2557,7 +2557,7 @@
         <v>53</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
@@ -2568,7 +2568,7 @@
         <v>53</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
@@ -2579,7 +2579,7 @@
         <v>53</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>4</v>
@@ -2590,7 +2590,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>67</v>
+        <v>440</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>4</v>
@@ -2601,7 +2601,7 @@
         <v>53</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
@@ -2612,7 +2612,7 @@
         <v>53</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>4</v>
@@ -2623,7 +2623,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -2634,7 +2634,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -2645,7 +2645,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
@@ -2656,7 +2656,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -2667,7 +2667,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
@@ -2678,7 +2678,7 @@
         <v>53</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>4</v>
@@ -2689,7 +2689,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -2700,7 +2700,7 @@
         <v>53</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>4</v>
@@ -2711,7 +2711,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>78</v>
+        <v>444</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>4</v>
@@ -2722,7 +2722,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>4</v>
@@ -2733,7 +2733,7 @@
         <v>53</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>4</v>
@@ -2744,7 +2744,7 @@
         <v>53</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>4</v>
@@ -2755,7 +2755,7 @@
         <v>53</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -2766,7 +2766,7 @@
         <v>53</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>4</v>
@@ -2777,7 +2777,7 @@
         <v>53</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>4</v>
@@ -2788,7 +2788,7 @@
         <v>53</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>4</v>
@@ -2799,7 +2799,7 @@
         <v>53</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -2810,7 +2810,7 @@
         <v>53</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -2821,7 +2821,7 @@
         <v>53</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -2832,7 +2832,7 @@
         <v>53</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>4</v>
@@ -2843,7 +2843,7 @@
         <v>53</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -2854,7 +2854,7 @@
         <v>53</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -2865,7 +2865,7 @@
         <v>53</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
@@ -2876,7 +2876,7 @@
         <v>53</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>4</v>
@@ -2887,7 +2887,7 @@
         <v>53</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>4</v>
@@ -2900,10 +2900,10 @@
     </row>
     <row r="101" spans="1:3" ht="21">
       <c r="A101" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>96</v>
+        <v>427</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>4</v>
@@ -2911,10 +2911,10 @@
     </row>
     <row r="102" spans="1:3" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>4</v>
@@ -2922,10 +2922,10 @@
     </row>
     <row r="103" spans="1:3" ht="21">
       <c r="A103" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -2933,10 +2933,10 @@
     </row>
     <row r="104" spans="1:3" ht="21">
       <c r="A104" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>4</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="105" spans="1:3" ht="21">
       <c r="A105" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>4</v>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="106" spans="1:3" ht="21">
       <c r="A106" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>101</v>
+        <v>432</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>4</v>
@@ -2966,10 +2966,10 @@
     </row>
     <row r="107" spans="1:3" ht="21">
       <c r="A107" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>4</v>
@@ -2977,10 +2977,10 @@
     </row>
     <row r="108" spans="1:3" ht="21">
       <c r="A108" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>103</v>
+        <v>430</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
@@ -2988,21 +2988,21 @@
     </row>
     <row r="109" spans="1:3" ht="21">
       <c r="A109" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="21">
+    <row r="110" spans="1:3" ht="19.5">
       <c r="A110" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>433</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>4</v>
@@ -3010,10 +3010,10 @@
     </row>
     <row r="111" spans="1:3" ht="21">
       <c r="A111" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>106</v>
+        <v>431</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>4</v>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="112" spans="1:3" ht="21">
       <c r="A112" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>4</v>
@@ -3032,10 +3032,10 @@
     </row>
     <row r="113" spans="1:3" ht="21">
       <c r="A113" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>4</v>
@@ -3043,10 +3043,10 @@
     </row>
     <row r="114" spans="1:3" ht="21">
       <c r="A114" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>109</v>
+        <v>435</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>4</v>
@@ -3054,10 +3054,10 @@
     </row>
     <row r="115" spans="1:3" ht="21">
       <c r="A115" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>4</v>
@@ -3065,10 +3065,10 @@
     </row>
     <row r="116" spans="1:3" ht="21">
       <c r="A116" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>4</v>
@@ -3076,10 +3076,10 @@
     </row>
     <row r="117" spans="1:3" ht="21">
       <c r="A117" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>4</v>
@@ -3087,10 +3087,10 @@
     </row>
     <row r="118" spans="1:3" ht="21">
       <c r="A118" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>4</v>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="119" spans="1:3" ht="21">
       <c r="A119" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>4</v>
@@ -3109,10 +3109,10 @@
     </row>
     <row r="120" spans="1:3" ht="21">
       <c r="A120" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>4</v>
@@ -3120,10 +3120,10 @@
     </row>
     <row r="121" spans="1:3" ht="21">
       <c r="A121" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>4</v>
@@ -3131,10 +3131,10 @@
     </row>
     <row r="122" spans="1:3" ht="21">
       <c r="A122" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>4</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="123" spans="1:3" ht="21">
       <c r="A123" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>4</v>
@@ -3153,10 +3153,10 @@
     </row>
     <row r="124" spans="1:3" ht="21">
       <c r="A124" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>4</v>
@@ -3164,10 +3164,10 @@
     </row>
     <row r="125" spans="1:3" ht="21">
       <c r="A125" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>4</v>
@@ -3175,10 +3175,10 @@
     </row>
     <row r="126" spans="1:3" ht="21">
       <c r="A126" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>4</v>
@@ -3186,10 +3186,10 @@
     </row>
     <row r="127" spans="1:3" ht="21">
       <c r="A127" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>4</v>
@@ -3197,10 +3197,10 @@
     </row>
     <row r="128" spans="1:3" ht="21">
       <c r="A128" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>4</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="129" spans="1:3" ht="21">
       <c r="A129" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>4</v>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="130" spans="1:3" ht="21">
       <c r="A130" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>4</v>
@@ -3230,10 +3230,10 @@
     </row>
     <row r="131" spans="1:3" ht="21">
       <c r="A131" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>4</v>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="132" spans="1:3" ht="21">
       <c r="A132" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>4</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="133" spans="1:3" ht="21">
       <c r="A133" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>4</v>
@@ -3263,10 +3263,10 @@
     </row>
     <row r="134" spans="1:3" ht="21">
       <c r="A134" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>4</v>
@@ -3274,10 +3274,10 @@
     </row>
     <row r="135" spans="1:3" ht="21">
       <c r="A135" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>4</v>
@@ -3285,10 +3285,10 @@
     </row>
     <row r="136" spans="1:3" ht="21">
       <c r="A136" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>4</v>
@@ -3300,10 +3300,10 @@
     </row>
     <row r="139" spans="1:3" ht="21">
       <c r="A139" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>4</v>
@@ -3311,10 +3311,10 @@
     </row>
     <row r="140" spans="1:3" ht="21">
       <c r="A140" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>4</v>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="141" spans="1:3" ht="21">
       <c r="A141" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>4</v>
@@ -3333,10 +3333,10 @@
     </row>
     <row r="142" spans="1:3" ht="21">
       <c r="A142" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>4</v>
@@ -3344,10 +3344,10 @@
     </row>
     <row r="143" spans="1:3" ht="21">
       <c r="A143" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>4</v>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="144" spans="1:3" ht="21">
       <c r="A144" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>4</v>
@@ -3366,10 +3366,10 @@
     </row>
     <row r="145" spans="1:3" ht="21">
       <c r="A145" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>4</v>
@@ -3377,10 +3377,10 @@
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>4</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="147" spans="1:3" ht="21">
       <c r="A147" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>4</v>
@@ -3399,10 +3399,10 @@
     </row>
     <row r="148" spans="1:3" ht="21">
       <c r="A148" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>4</v>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="149" spans="1:3" ht="21">
       <c r="A149" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>4</v>
@@ -3421,10 +3421,10 @@
     </row>
     <row r="150" spans="1:3" ht="21">
       <c r="A150" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>4</v>
@@ -3432,10 +3432,10 @@
     </row>
     <row r="151" spans="1:3" ht="21">
       <c r="A151" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>4</v>
@@ -3443,10 +3443,10 @@
     </row>
     <row r="152" spans="1:3" ht="21">
       <c r="A152" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>4</v>
@@ -3454,10 +3454,10 @@
     </row>
     <row r="153" spans="1:3" ht="21">
       <c r="A153" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>4</v>
@@ -3465,10 +3465,10 @@
     </row>
     <row r="154" spans="1:3" ht="21">
       <c r="A154" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>146</v>
+        <v>464</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>4</v>
@@ -3476,10 +3476,10 @@
     </row>
     <row r="155" spans="1:3" ht="21">
       <c r="A155" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>4</v>
@@ -3487,10 +3487,10 @@
     </row>
     <row r="156" spans="1:3" ht="21">
       <c r="A156" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>148</v>
+        <v>465</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>4</v>
@@ -3498,10 +3498,10 @@
     </row>
     <row r="157" spans="1:3" ht="21">
       <c r="A157" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>4</v>
@@ -3509,10 +3509,10 @@
     </row>
     <row r="158" spans="1:3" ht="21">
       <c r="A158" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B158" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>4</v>
@@ -3520,10 +3520,10 @@
     </row>
     <row r="159" spans="1:3" ht="21">
       <c r="A159" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>4</v>
@@ -3531,10 +3531,10 @@
     </row>
     <row r="160" spans="1:3" ht="21">
       <c r="A160" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>4</v>
@@ -3542,10 +3542,10 @@
     </row>
     <row r="161" spans="1:3" ht="21">
       <c r="A161" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>4</v>
@@ -3553,10 +3553,10 @@
     </row>
     <row r="162" spans="1:3" ht="21">
       <c r="A162" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>4</v>
@@ -3564,10 +3564,10 @@
     </row>
     <row r="163" spans="1:3" ht="21">
       <c r="A163" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>4</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="164" spans="1:3" ht="21">
       <c r="A164" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>4</v>
@@ -3586,10 +3586,10 @@
     </row>
     <row r="165" spans="1:3" ht="21">
       <c r="A165" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>4</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="166" spans="1:3" ht="21">
       <c r="A166" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>4</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="167" spans="1:3" ht="21">
       <c r="A167" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>159</v>
+        <v>466</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>4</v>
@@ -3619,10 +3619,10 @@
     </row>
     <row r="168" spans="1:3" ht="21">
       <c r="A168" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>4</v>
@@ -3630,10 +3630,10 @@
     </row>
     <row r="169" spans="1:3" ht="21">
       <c r="A169" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>4</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="170" spans="1:3" ht="21">
       <c r="A170" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>4</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="171" spans="1:3" ht="21">
       <c r="A171" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>4</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="172" spans="1:3" ht="21">
       <c r="A172" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>4</v>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="173" spans="1:3" ht="21">
       <c r="A173" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>4</v>
@@ -3685,10 +3685,10 @@
     </row>
     <row r="174" spans="1:3" ht="21">
       <c r="A174" s="8" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>4</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="177" spans="1:3" ht="21">
       <c r="A177" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>168</v>
+        <v>451</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>4</v>
@@ -3711,10 +3711,10 @@
     </row>
     <row r="178" spans="1:3" ht="21">
       <c r="A178" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>4</v>
@@ -3722,10 +3722,10 @@
     </row>
     <row r="179" spans="1:3" ht="21">
       <c r="A179" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>170</v>
+        <v>446</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>4</v>
@@ -3733,10 +3733,10 @@
     </row>
     <row r="180" spans="1:3" ht="21">
       <c r="A180" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>4</v>
@@ -3744,10 +3744,10 @@
     </row>
     <row r="181" spans="1:3" ht="21">
       <c r="A181" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>172</v>
+        <v>448</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>4</v>
@@ -3755,10 +3755,10 @@
     </row>
     <row r="182" spans="1:3" ht="21">
       <c r="A182" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>4</v>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="183" spans="1:3" ht="21">
       <c r="A183" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>4</v>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="184" spans="1:3" ht="21">
       <c r="A184" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>4</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="185" spans="1:3" ht="21">
       <c r="A185" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>4</v>
@@ -3799,10 +3799,10 @@
     </row>
     <row r="186" spans="1:3" ht="21">
       <c r="A186" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>177</v>
+        <v>449</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>4</v>
@@ -3810,10 +3810,10 @@
     </row>
     <row r="187" spans="1:3" ht="21">
       <c r="A187" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>4</v>
@@ -3821,10 +3821,10 @@
     </row>
     <row r="188" spans="1:3" ht="21">
       <c r="A188" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>179</v>
+        <v>450</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>4</v>
@@ -3832,10 +3832,10 @@
     </row>
     <row r="189" spans="1:3" ht="21">
       <c r="A189" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>180</v>
+        <v>437</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>4</v>
@@ -3843,10 +3843,10 @@
     </row>
     <row r="190" spans="1:3" ht="21">
       <c r="A190" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>4</v>
@@ -3854,10 +3854,10 @@
     </row>
     <row r="191" spans="1:3" ht="21">
       <c r="A191" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>4</v>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="192" spans="1:3" ht="21">
       <c r="A192" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>4</v>
@@ -3876,10 +3876,10 @@
     </row>
     <row r="193" spans="1:3" ht="21">
       <c r="A193" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>4</v>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="194" spans="1:3" ht="21">
       <c r="A194" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>4</v>
@@ -3898,10 +3898,10 @@
     </row>
     <row r="195" spans="1:3" ht="21">
       <c r="A195" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>4</v>
@@ -3909,10 +3909,10 @@
     </row>
     <row r="196" spans="1:3" ht="21">
       <c r="A196" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>4</v>
@@ -3920,10 +3920,10 @@
     </row>
     <row r="197" spans="1:3" ht="21">
       <c r="A197" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>4</v>
@@ -3931,10 +3931,10 @@
     </row>
     <row r="198" spans="1:3" ht="21">
       <c r="A198" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>4</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="199" spans="1:3" ht="21">
       <c r="A199" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>4</v>
@@ -3953,10 +3953,10 @@
     </row>
     <row r="200" spans="1:3" ht="21">
       <c r="A200" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>4</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="201" spans="1:3" ht="21">
       <c r="A201" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>4</v>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="202" spans="1:3" ht="21">
       <c r="A202" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>193</v>
+        <v>436</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>4</v>
@@ -3986,10 +3986,10 @@
     </row>
     <row r="203" spans="1:3" ht="21">
       <c r="A203" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B203" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>194</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>4</v>
@@ -3997,10 +3997,10 @@
     </row>
     <row r="204" spans="1:3" ht="21">
       <c r="A204" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>4</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="205" spans="1:3" ht="21">
       <c r="A205" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>4</v>
@@ -4019,10 +4019,10 @@
     </row>
     <row r="206" spans="1:3" ht="21">
       <c r="A206" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>4</v>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="207" spans="1:3" ht="21">
       <c r="A207" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>4</v>
@@ -4041,10 +4041,10 @@
     </row>
     <row r="208" spans="1:3" ht="21">
       <c r="A208" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>4</v>
@@ -4052,10 +4052,10 @@
     </row>
     <row r="209" spans="1:3" ht="21">
       <c r="A209" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>4</v>
@@ -4063,10 +4063,10 @@
     </row>
     <row r="210" spans="1:3" ht="21">
       <c r="A210" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>4</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="211" spans="1:3" ht="21">
       <c r="A211" s="5" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>4</v>
@@ -4091,16 +4091,16 @@
     <row r="213" spans="1:3" ht="21">
       <c r="A213" s="8"/>
       <c r="B213" s="7" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:3" ht="21">
       <c r="A214" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>4</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="215" spans="1:3" ht="21">
       <c r="A215" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>4</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="216" spans="1:3" ht="21">
       <c r="A216" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>4</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="217" spans="1:3" ht="21">
       <c r="A217" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>4</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="218" spans="1:3" ht="21">
       <c r="A218" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>4</v>
@@ -4152,10 +4152,10 @@
     </row>
     <row r="219" spans="1:3" ht="21">
       <c r="A219" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>4</v>
@@ -4163,10 +4163,10 @@
     </row>
     <row r="220" spans="1:3" ht="21">
       <c r="A220" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>4</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="221" spans="1:3" ht="21">
       <c r="A221" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>4</v>
@@ -4185,10 +4185,10 @@
     </row>
     <row r="222" spans="1:3" ht="21">
       <c r="A222" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>4</v>
@@ -4196,10 +4196,10 @@
     </row>
     <row r="223" spans="1:3" ht="21">
       <c r="A223" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>4</v>
@@ -4207,10 +4207,10 @@
     </row>
     <row r="224" spans="1:3" ht="21">
       <c r="A224" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="225" spans="1:3" ht="21">
       <c r="A225" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>4</v>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="226" spans="1:3" ht="21">
       <c r="A226" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
@@ -4240,10 +4240,10 @@
     </row>
     <row r="227" spans="1:3" ht="21">
       <c r="A227" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>4</v>
@@ -4251,10 +4251,10 @@
     </row>
     <row r="228" spans="1:3" ht="21">
       <c r="A228" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>4</v>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="229" spans="1:3" ht="21">
       <c r="A229" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="230" spans="1:3" ht="21">
       <c r="A230" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
@@ -4284,10 +4284,10 @@
     </row>
     <row r="231" spans="1:3" ht="21">
       <c r="A231" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>4</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="232" spans="1:3" ht="21">
       <c r="A232" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>4</v>
@@ -4306,10 +4306,10 @@
     </row>
     <row r="233" spans="1:3" ht="21">
       <c r="A233" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>4</v>
@@ -4317,10 +4317,10 @@
     </row>
     <row r="234" spans="1:3" ht="21">
       <c r="A234" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>4</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="235" spans="1:3" ht="21">
       <c r="A235" s="5" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>220</v>
+        <v>463</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
@@ -4347,10 +4347,10 @@
     </row>
     <row r="238" spans="1:3" ht="21">
       <c r="A238" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>222</v>
+        <v>467</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>4</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="239" spans="1:3" ht="21">
       <c r="A239" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="240" spans="1:3" ht="21">
       <c r="A240" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
@@ -4380,10 +4380,10 @@
     </row>
     <row r="241" spans="1:3" ht="21">
       <c r="A241" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
@@ -4391,10 +4391,10 @@
     </row>
     <row r="242" spans="1:3" ht="21">
       <c r="A242" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>4</v>
@@ -4402,10 +4402,10 @@
     </row>
     <row r="243" spans="1:3" ht="21">
       <c r="A243" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
@@ -4413,10 +4413,10 @@
     </row>
     <row r="244" spans="1:3" ht="21">
       <c r="A244" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>4</v>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="245" spans="1:3" ht="21">
       <c r="A245" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>4</v>
@@ -4435,10 +4435,10 @@
     </row>
     <row r="246" spans="1:3" ht="21">
       <c r="A246" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
@@ -4446,10 +4446,10 @@
     </row>
     <row r="247" spans="1:3" ht="21">
       <c r="A247" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>4</v>
@@ -4457,10 +4457,10 @@
     </row>
     <row r="248" spans="1:3" ht="21">
       <c r="A248" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="249" spans="1:3" ht="21">
       <c r="A249" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="250" spans="1:3" ht="21">
       <c r="A250" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>4</v>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="251" spans="1:3" ht="21">
       <c r="A251" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>4</v>
@@ -4501,10 +4501,10 @@
     </row>
     <row r="252" spans="1:3" ht="21">
       <c r="A252" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
@@ -4512,10 +4512,10 @@
     </row>
     <row r="253" spans="1:3" ht="21">
       <c r="A253" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>4</v>
@@ -4523,10 +4523,10 @@
     </row>
     <row r="254" spans="1:3" ht="21">
       <c r="A254" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>4</v>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="255" spans="1:3" ht="21">
       <c r="A255" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>4</v>
@@ -4545,10 +4545,10 @@
     </row>
     <row r="256" spans="1:3" ht="21">
       <c r="A256" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>4</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="257" spans="1:3" ht="21">
       <c r="A257" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>4</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="258" spans="1:3" ht="21">
       <c r="A258" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>4</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="259" spans="1:3" ht="21">
       <c r="A259" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>4</v>
@@ -4589,10 +4589,10 @@
     </row>
     <row r="260" spans="1:3" ht="21">
       <c r="A260" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>4</v>
@@ -4600,10 +4600,10 @@
     </row>
     <row r="261" spans="1:3" ht="21">
       <c r="A261" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>4</v>
@@ -4611,10 +4611,10 @@
     </row>
     <row r="262" spans="1:3" ht="21">
       <c r="A262" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>4</v>
@@ -4622,10 +4622,10 @@
     </row>
     <row r="263" spans="1:3" ht="21">
       <c r="A263" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>4</v>
@@ -4633,10 +4633,10 @@
     </row>
     <row r="264" spans="1:3" ht="21">
       <c r="A264" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
@@ -4644,10 +4644,10 @@
     </row>
     <row r="265" spans="1:3" ht="21">
       <c r="A265" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
@@ -4655,10 +4655,10 @@
     </row>
     <row r="266" spans="1:3" ht="21">
       <c r="A266" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
@@ -4666,10 +4666,10 @@
     </row>
     <row r="267" spans="1:3" ht="21">
       <c r="A267" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>4</v>
@@ -4677,10 +4677,10 @@
     </row>
     <row r="268" spans="1:3" ht="21">
       <c r="A268" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>4</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="269" spans="1:3" ht="21">
       <c r="A269" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="270" spans="1:3" ht="21">
       <c r="A270" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>4</v>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="271" spans="1:3" ht="21">
       <c r="A271" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>4</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="272" spans="1:3" ht="21">
       <c r="A272" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>4</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="275" spans="1:3" ht="21">
       <c r="A275" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>4</v>
@@ -4751,10 +4751,10 @@
     </row>
     <row r="276" spans="1:3" ht="21">
       <c r="A276" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>4</v>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="277" spans="1:3" ht="21">
       <c r="A277" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>4</v>
@@ -4773,10 +4773,10 @@
     </row>
     <row r="278" spans="1:3" ht="21">
       <c r="A278" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
@@ -4784,10 +4784,10 @@
     </row>
     <row r="279" spans="1:3" ht="21">
       <c r="A279" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>4</v>
@@ -4795,10 +4795,10 @@
     </row>
     <row r="280" spans="1:3" ht="21">
       <c r="A280" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>4</v>
@@ -4806,10 +4806,10 @@
     </row>
     <row r="281" spans="1:3" ht="21">
       <c r="A281" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
@@ -4817,10 +4817,10 @@
     </row>
     <row r="282" spans="1:3" ht="21">
       <c r="A282" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>4</v>
@@ -4828,10 +4828,10 @@
     </row>
     <row r="283" spans="1:3" ht="21">
       <c r="A283" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>4</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="284" spans="1:3" ht="21">
       <c r="A284" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>4</v>
@@ -4850,30 +4850,30 @@
     </row>
     <row r="285" spans="1:3" ht="21">
       <c r="A285" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
       <c r="A286" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="C286" s="4"/>
     </row>
     <row r="287" spans="1:3" ht="21">
       <c r="A287" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>4</v>
@@ -4881,21 +4881,21 @@
     </row>
     <row r="288" spans="1:3" ht="21">
       <c r="A288" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
       <c r="A289" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>4</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="290" spans="1:3" ht="21">
       <c r="A290" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B290" s="6" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
@@ -4914,10 +4914,10 @@
     </row>
     <row r="291" spans="1:3" ht="21">
       <c r="A291" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B291" s="6" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>4</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="292" spans="1:3" ht="21">
       <c r="A292" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B292" s="6" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="293" spans="1:3" ht="21">
       <c r="A293" s="5" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="B293" s="6" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>4</v>
@@ -4955,10 +4955,10 @@
     </row>
     <row r="296" spans="1:3" ht="21">
       <c r="A296" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B296" s="6" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>4</v>
@@ -4966,10 +4966,10 @@
     </row>
     <row r="297" spans="1:3" ht="21">
       <c r="A297" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B297" s="6" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>4</v>
@@ -4977,10 +4977,10 @@
     </row>
     <row r="298" spans="1:3" ht="21">
       <c r="A298" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
@@ -4988,10 +4988,10 @@
     </row>
     <row r="299" spans="1:3" ht="21">
       <c r="A299" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
@@ -4999,10 +4999,10 @@
     </row>
     <row r="300" spans="1:3" ht="21">
       <c r="A300" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>4</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="301" spans="1:3" ht="21">
       <c r="A301" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B301" s="6" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
@@ -5021,10 +5021,10 @@
     </row>
     <row r="302" spans="1:3" ht="21">
       <c r="A302" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>4</v>
@@ -5032,10 +5032,10 @@
     </row>
     <row r="303" spans="1:3" ht="21">
       <c r="A303" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
@@ -5043,10 +5043,10 @@
     </row>
     <row r="304" spans="1:3" ht="21">
       <c r="A304" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B304" s="6" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>4</v>
@@ -5054,10 +5054,10 @@
     </row>
     <row r="305" spans="1:3" ht="21">
       <c r="A305" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B305" s="6" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>4</v>
@@ -5065,10 +5065,10 @@
     </row>
     <row r="306" spans="1:3" ht="21">
       <c r="A306" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B306" s="6" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="307" spans="1:3" ht="21">
       <c r="A307" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B307" s="6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>4</v>
@@ -5087,10 +5087,10 @@
     </row>
     <row r="308" spans="1:3" ht="21">
       <c r="A308" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>278</v>
+        <v>457</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="309" spans="1:3" ht="21">
       <c r="A309" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>279</v>
+        <v>459</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>4</v>
@@ -5109,10 +5109,10 @@
     </row>
     <row r="310" spans="1:3" ht="21">
       <c r="A310" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B310" s="6" t="s">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>4</v>
@@ -5120,10 +5120,10 @@
     </row>
     <row r="311" spans="1:3" ht="21">
       <c r="A311" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B311" s="6" t="s">
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>4</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="312" spans="1:3" ht="16.5" customHeight="1">
       <c r="A312" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>282</v>
+        <v>237</v>
+      </c>
+      <c r="B312" s="9" t="s">
+        <v>247</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
@@ -5142,10 +5142,10 @@
     </row>
     <row r="313" spans="1:3" ht="21">
       <c r="A313" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B313" s="6" t="s">
-        <v>283</v>
+        <v>462</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
@@ -5153,10 +5153,10 @@
     </row>
     <row r="314" spans="1:3" ht="21">
       <c r="A314" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B314" s="6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="315" spans="1:3" ht="21">
       <c r="A315" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B315" s="6" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
@@ -5175,10 +5175,10 @@
     </row>
     <row r="316" spans="1:3" ht="21">
       <c r="A316" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B316" s="6" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
@@ -5186,10 +5186,10 @@
     </row>
     <row r="317" spans="1:3" ht="21">
       <c r="A317" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
@@ -5197,21 +5197,21 @@
     </row>
     <row r="318" spans="1:3" ht="21">
       <c r="A318" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B318" s="6" t="s">
-        <v>288</v>
+        <v>458</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>410</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
       <c r="A319" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>4</v>
@@ -5219,10 +5219,10 @@
     </row>
     <row r="320" spans="1:3" ht="21">
       <c r="A320" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>4</v>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="321" spans="1:3" ht="21">
       <c r="A321" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>4</v>
@@ -5241,10 +5241,10 @@
     </row>
     <row r="322" spans="1:3" ht="21">
       <c r="A322" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>4</v>
@@ -5252,10 +5252,10 @@
     </row>
     <row r="323" spans="1:3" ht="21">
       <c r="A323" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>4</v>
@@ -5263,10 +5263,10 @@
     </row>
     <row r="324" spans="1:3" ht="21">
       <c r="A324" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
@@ -5274,10 +5274,10 @@
     </row>
     <row r="325" spans="1:3" ht="21">
       <c r="A325" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>4</v>
@@ -5285,10 +5285,10 @@
     </row>
     <row r="326" spans="1:3" ht="21">
       <c r="A326" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
@@ -5296,10 +5296,10 @@
     </row>
     <row r="327" spans="1:3" ht="21">
       <c r="A327" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B327" s="6" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>4</v>
@@ -5307,10 +5307,10 @@
     </row>
     <row r="328" spans="1:3" ht="21">
       <c r="A328" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B328" s="6" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
@@ -5318,10 +5318,10 @@
     </row>
     <row r="329" spans="1:3" ht="21">
       <c r="A329" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>4</v>
@@ -5329,10 +5329,10 @@
     </row>
     <row r="330" spans="1:3" ht="21">
       <c r="A330" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>4</v>
@@ -5340,10 +5340,10 @@
     </row>
     <row r="331" spans="1:3" ht="21">
       <c r="A331" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>4</v>
@@ -5351,10 +5351,10 @@
     </row>
     <row r="332" spans="1:3" ht="21">
       <c r="A332" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>4</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="333" spans="1:3" ht="21">
       <c r="A333" s="5" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>4</v>
@@ -5381,10 +5381,10 @@
     </row>
     <row r="336" spans="1:3" ht="21">
       <c r="A336" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B336" s="6" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>4</v>
@@ -5392,10 +5392,10 @@
     </row>
     <row r="337" spans="1:3" ht="21">
       <c r="A337" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B337" s="6" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>4</v>
@@ -5403,10 +5403,10 @@
     </row>
     <row r="338" spans="1:3" ht="21">
       <c r="A338" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B338" s="6" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
@@ -5414,10 +5414,10 @@
     </row>
     <row r="339" spans="1:3" ht="21">
       <c r="A339" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B339" s="6" t="s">
-        <v>308</v>
+        <v>452</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>4</v>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="340" spans="1:3" ht="21">
       <c r="A340" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B340" s="6" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
@@ -5436,10 +5436,10 @@
     </row>
     <row r="341" spans="1:3" ht="21">
       <c r="A341" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
@@ -5447,10 +5447,10 @@
     </row>
     <row r="342" spans="1:3" ht="21">
       <c r="A342" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B342" s="6" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="343" spans="1:3" ht="21">
       <c r="A343" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>4</v>
@@ -5469,10 +5469,10 @@
     </row>
     <row r="344" spans="1:3" ht="21">
       <c r="A344" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>4</v>
@@ -5480,10 +5480,10 @@
     </row>
     <row r="345" spans="1:3" ht="21">
       <c r="A345" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B345" s="6" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="346" spans="1:3" ht="21">
       <c r="A346" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B346" s="6" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
@@ -5502,10 +5502,10 @@
     </row>
     <row r="347" spans="1:3" ht="21">
       <c r="A347" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>316</v>
+        <v>453</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>4</v>
@@ -5513,10 +5513,10 @@
     </row>
     <row r="348" spans="1:3" ht="21">
       <c r="A348" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>4</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="349" spans="1:3" ht="21">
       <c r="A349" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B349" s="6" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
@@ -5535,10 +5535,10 @@
     </row>
     <row r="350" spans="1:3" ht="21">
       <c r="A350" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>4</v>
@@ -5546,10 +5546,10 @@
     </row>
     <row r="351" spans="1:3" ht="21">
       <c r="A351" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
@@ -5557,10 +5557,10 @@
     </row>
     <row r="352" spans="1:3" ht="21">
       <c r="A352" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>4</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="353" spans="1:3" ht="21">
       <c r="A353" s="8" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>4</v>
@@ -5587,10 +5587,10 @@
     </row>
     <row r="356" spans="1:3" ht="21">
       <c r="A356" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>4</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="357" spans="1:3" ht="21">
       <c r="A357" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>4</v>
@@ -5609,10 +5609,10 @@
     </row>
     <row r="358" spans="1:3" ht="21">
       <c r="A358" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>4</v>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="359" spans="1:3" ht="21">
       <c r="A359" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B359" s="6" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>4</v>
@@ -5631,10 +5631,10 @@
     </row>
     <row r="360" spans="1:3" ht="21">
       <c r="A360" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B360" s="6" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>4</v>
@@ -5642,10 +5642,10 @@
     </row>
     <row r="361" spans="1:3" ht="21">
       <c r="A361" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B361" s="6" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
@@ -5653,10 +5653,10 @@
     </row>
     <row r="362" spans="1:3" ht="21">
       <c r="A362" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>4</v>
@@ -5664,10 +5664,10 @@
     </row>
     <row r="363" spans="1:3" ht="21">
       <c r="A363" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
@@ -5675,10 +5675,10 @@
     </row>
     <row r="364" spans="1:3" ht="21">
       <c r="A364" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
@@ -5686,10 +5686,10 @@
     </row>
     <row r="365" spans="1:3" ht="21">
       <c r="A365" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B365" s="6" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>4</v>
@@ -5697,10 +5697,10 @@
     </row>
     <row r="366" spans="1:3" ht="21">
       <c r="A366" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B366" s="6" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>4</v>
@@ -5708,10 +5708,10 @@
     </row>
     <row r="367" spans="1:3" ht="21">
       <c r="A367" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B367" s="6" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>4</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="368" spans="1:3" ht="21">
       <c r="A368" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B368" s="6" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
@@ -5730,10 +5730,10 @@
     </row>
     <row r="369" spans="1:3" ht="21">
       <c r="A369" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
@@ -5741,10 +5741,10 @@
     </row>
     <row r="370" spans="1:3" ht="21">
       <c r="A370" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B370" s="6" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>4</v>
@@ -5752,10 +5752,10 @@
     </row>
     <row r="371" spans="1:3" ht="21">
       <c r="A371" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>4</v>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="372" spans="1:3" ht="21">
       <c r="A372" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
@@ -5774,10 +5774,10 @@
     </row>
     <row r="373" spans="1:3" ht="21">
       <c r="A373" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B373" s="6" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>4</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="374" spans="1:3" ht="21">
       <c r="A374" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>4</v>
@@ -5796,10 +5796,10 @@
     </row>
     <row r="375" spans="1:3" ht="21">
       <c r="A375" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>4</v>
@@ -5807,10 +5807,10 @@
     </row>
     <row r="376" spans="1:3" ht="21">
       <c r="A376" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>4</v>
@@ -5818,10 +5818,10 @@
     </row>
     <row r="377" spans="1:3" ht="21">
       <c r="A377" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>4</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="378" spans="1:3" ht="21">
       <c r="A378" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B378" s="6" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>4</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="379" spans="1:3" ht="21">
       <c r="A379" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B379" s="6" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>4</v>
@@ -5851,10 +5851,10 @@
     </row>
     <row r="380" spans="1:3" ht="21">
       <c r="A380" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B380" s="6" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>4</v>
@@ -5862,10 +5862,10 @@
     </row>
     <row r="381" spans="1:3" ht="21">
       <c r="A381" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
@@ -5873,10 +5873,10 @@
     </row>
     <row r="382" spans="1:3" ht="21">
       <c r="A382" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="383" spans="1:3" ht="21">
       <c r="A383" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>4</v>
@@ -5895,10 +5895,10 @@
     </row>
     <row r="384" spans="1:3" ht="21">
       <c r="A384" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B384" s="6" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>4</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="385" spans="1:3" ht="21">
       <c r="A385" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B385" s="6" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>4</v>
@@ -5917,10 +5917,10 @@
     </row>
     <row r="386" spans="1:3" ht="21">
       <c r="A386" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B386" s="6" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>4</v>
@@ -5928,10 +5928,10 @@
     </row>
     <row r="387" spans="1:3" ht="21">
       <c r="A387" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B387" s="6" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>4</v>
@@ -5939,10 +5939,10 @@
     </row>
     <row r="388" spans="1:3" ht="21">
       <c r="A388" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
@@ -5950,10 +5950,10 @@
     </row>
     <row r="389" spans="1:3" ht="21">
       <c r="A389" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>4</v>
@@ -5961,10 +5961,10 @@
     </row>
     <row r="390" spans="1:3" ht="21">
       <c r="A390" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
@@ -5972,10 +5972,10 @@
     </row>
     <row r="391" spans="1:3" ht="21">
       <c r="A391" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
@@ -5983,10 +5983,10 @@
     </row>
     <row r="392" spans="1:3" ht="21">
       <c r="A392" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B392" s="6" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>4</v>
@@ -5994,10 +5994,10 @@
     </row>
     <row r="393" spans="1:3" ht="21">
       <c r="A393" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
@@ -6005,10 +6005,10 @@
     </row>
     <row r="394" spans="1:3" ht="21">
       <c r="A394" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>4</v>
@@ -6016,10 +6016,10 @@
     </row>
     <row r="395" spans="1:3" ht="21">
       <c r="A395" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
@@ -6027,10 +6027,10 @@
     </row>
     <row r="396" spans="1:3" ht="21">
       <c r="A396" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>4</v>
@@ -6038,10 +6038,10 @@
     </row>
     <row r="397" spans="1:3" ht="21">
       <c r="A397" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>4</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="398" spans="1:3" ht="21">
       <c r="A398" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
@@ -6060,10 +6060,10 @@
     </row>
     <row r="399" spans="1:3" ht="21">
       <c r="A399" s="8" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>4</v>
@@ -6079,10 +6079,10 @@
     </row>
     <row r="402" spans="1:3" ht="21">
       <c r="A402" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>4</v>
@@ -6090,10 +6090,10 @@
     </row>
     <row r="403" spans="1:3" ht="21">
       <c r="A403" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
@@ -6101,10 +6101,10 @@
     </row>
     <row r="404" spans="1:3" ht="21">
       <c r="A404" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B404" s="6" t="s">
-        <v>363</v>
+        <v>324</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>4</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="405" spans="1:3" ht="21">
       <c r="A405" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>4</v>
@@ -6123,10 +6123,10 @@
     </row>
     <row r="406" spans="1:3" ht="21">
       <c r="A406" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B406" s="6" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>4</v>
@@ -6134,10 +6134,10 @@
     </row>
     <row r="407" spans="1:3" ht="21">
       <c r="A407" s="8" t="s">
-        <v>360</v>
+        <v>321</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="410" spans="1:3" ht="21">
       <c r="A410" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
@@ -6164,10 +6164,10 @@
     </row>
     <row r="411" spans="1:3" ht="21">
       <c r="A411" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B411" s="6" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
@@ -6175,10 +6175,10 @@
     </row>
     <row r="412" spans="1:3" ht="21">
       <c r="A412" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B412" s="6" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
@@ -6186,10 +6186,10 @@
     </row>
     <row r="413" spans="1:3" ht="21">
       <c r="A413" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B413" s="6" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
@@ -6197,10 +6197,10 @@
     </row>
     <row r="414" spans="1:3" ht="21">
       <c r="A414" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
@@ -6208,10 +6208,10 @@
     </row>
     <row r="415" spans="1:3" ht="21">
       <c r="A415" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B415" s="6" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>4</v>
@@ -6219,10 +6219,10 @@
     </row>
     <row r="416" spans="1:3" ht="21">
       <c r="A416" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B416" s="6" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>4</v>
@@ -6230,10 +6230,10 @@
     </row>
     <row r="417" spans="1:3" ht="21">
       <c r="A417" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
@@ -6241,10 +6241,10 @@
     </row>
     <row r="418" spans="1:3" ht="21">
       <c r="A418" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
@@ -6252,10 +6252,10 @@
     </row>
     <row r="419" spans="1:3" ht="21">
       <c r="A419" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>4</v>
@@ -6263,10 +6263,10 @@
     </row>
     <row r="420" spans="1:3" ht="21">
       <c r="A420" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>4</v>
@@ -6274,10 +6274,10 @@
     </row>
     <row r="421" spans="1:3" ht="21">
       <c r="A421" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>4</v>
@@ -6285,10 +6285,10 @@
     </row>
     <row r="422" spans="1:3" ht="21">
       <c r="A422" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>4</v>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="423" spans="1:3" ht="21">
       <c r="A423" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
@@ -6307,10 +6307,10 @@
     </row>
     <row r="424" spans="1:3" ht="21">
       <c r="A424" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>4</v>
@@ -6318,10 +6318,10 @@
     </row>
     <row r="425" spans="1:3" ht="21">
       <c r="A425" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
@@ -6329,10 +6329,10 @@
     </row>
     <row r="426" spans="1:3" ht="21">
       <c r="A426" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>4</v>
@@ -6340,10 +6340,10 @@
     </row>
     <row r="427" spans="1:3" ht="21">
       <c r="A427" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>4</v>
@@ -6351,10 +6351,10 @@
     </row>
     <row r="428" spans="1:3" ht="21">
       <c r="A428" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
@@ -6362,10 +6362,10 @@
     </row>
     <row r="429" spans="1:3" ht="21">
       <c r="A429" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
@@ -6373,10 +6373,10 @@
     </row>
     <row r="430" spans="1:3" ht="21">
       <c r="A430" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="431" spans="1:3" ht="21">
       <c r="A431" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>4</v>
@@ -6395,10 +6395,10 @@
     </row>
     <row r="432" spans="1:3" ht="21">
       <c r="A432" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>4</v>
@@ -6406,10 +6406,10 @@
     </row>
     <row r="433" spans="1:3" ht="21">
       <c r="A433" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>4</v>
@@ -6417,10 +6417,10 @@
     </row>
     <row r="434" spans="1:3" ht="21">
       <c r="A434" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>4</v>
@@ -6428,10 +6428,10 @@
     </row>
     <row r="435" spans="1:3" ht="21">
       <c r="A435" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>4</v>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="436" spans="1:3" ht="21">
       <c r="A436" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>4</v>
@@ -6450,10 +6450,10 @@
     </row>
     <row r="437" spans="1:3" ht="21">
       <c r="A437" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="438" spans="1:3" ht="21">
       <c r="A438" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
@@ -6472,10 +6472,10 @@
     </row>
     <row r="439" spans="1:3" ht="21">
       <c r="A439" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B439" s="6" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>4</v>
@@ -6483,10 +6483,10 @@
     </row>
     <row r="440" spans="1:3" ht="21">
       <c r="A440" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B440" s="6" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
@@ -6494,10 +6494,10 @@
     </row>
     <row r="441" spans="1:3" ht="21">
       <c r="A441" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>4</v>
@@ -6505,10 +6505,10 @@
     </row>
     <row r="442" spans="1:3" ht="21">
       <c r="A442" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B442" s="6" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
@@ -6516,10 +6516,10 @@
     </row>
     <row r="443" spans="1:3" ht="21">
       <c r="A443" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B443" s="6" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
@@ -6527,10 +6527,10 @@
     </row>
     <row r="444" spans="1:3" ht="21">
       <c r="A444" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B444" s="6" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
@@ -6538,10 +6538,10 @@
     </row>
     <row r="445" spans="1:3" ht="21">
       <c r="A445" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B445" s="6" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
@@ -6549,10 +6549,10 @@
     </row>
     <row r="446" spans="1:3" ht="21">
       <c r="A446" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>4</v>
@@ -6560,10 +6560,10 @@
     </row>
     <row r="447" spans="1:3" ht="21">
       <c r="A447" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B447" s="6" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>4</v>
@@ -6571,10 +6571,10 @@
     </row>
     <row r="448" spans="1:3" ht="21">
       <c r="A448" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B448" s="6" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>4</v>
@@ -6582,10 +6582,10 @@
     </row>
     <row r="449" spans="1:3" ht="21">
       <c r="A449" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B449" s="6" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
@@ -6593,10 +6593,10 @@
     </row>
     <row r="450" spans="1:3" ht="21">
       <c r="A450" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B450" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>406</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
@@ -6604,10 +6604,10 @@
     </row>
     <row r="451" spans="1:3" ht="21">
       <c r="A451" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B451" s="6" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>4</v>
@@ -6615,10 +6615,10 @@
     </row>
     <row r="452" spans="1:3" ht="21">
       <c r="A452" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>4</v>
@@ -6626,10 +6626,10 @@
     </row>
     <row r="453" spans="1:3" ht="21">
       <c r="A453" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B453" s="6" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>4</v>
@@ -6637,10 +6637,10 @@
     </row>
     <row r="454" spans="1:3" ht="21">
       <c r="A454" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B454" s="6" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
@@ -6648,10 +6648,10 @@
     </row>
     <row r="455" spans="1:3" ht="21">
       <c r="A455" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>4</v>
@@ -6659,10 +6659,10 @@
     </row>
     <row r="456" spans="1:3" ht="21">
       <c r="A456" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>4</v>
@@ -6670,10 +6670,10 @@
     </row>
     <row r="457" spans="1:3" ht="21">
       <c r="A457" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>4</v>
@@ -6681,10 +6681,10 @@
     </row>
     <row r="458" spans="1:3" ht="21">
       <c r="A458" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>4</v>
@@ -6692,10 +6692,10 @@
     </row>
     <row r="459" spans="1:3" ht="21">
       <c r="A459" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
@@ -6703,10 +6703,10 @@
     </row>
     <row r="460" spans="1:3" ht="21">
       <c r="A460" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>4</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="461" spans="1:3" ht="21">
       <c r="A461" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
@@ -6725,10 +6725,10 @@
     </row>
     <row r="462" spans="1:3" ht="21">
       <c r="A462" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
@@ -6736,10 +6736,10 @@
     </row>
     <row r="463" spans="1:3" ht="21">
       <c r="A463" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>4</v>
@@ -6747,10 +6747,10 @@
     </row>
     <row r="464" spans="1:3" ht="21">
       <c r="A464" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="465" spans="1:3" ht="21">
       <c r="A465" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="466" spans="1:3" ht="21">
       <c r="A466" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
@@ -6780,10 +6780,10 @@
     </row>
     <row r="467" spans="1:3" ht="21">
       <c r="A467" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>4</v>
@@ -6791,10 +6791,10 @@
     </row>
     <row r="468" spans="1:3" ht="21">
       <c r="A468" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>4</v>
@@ -6802,10 +6802,10 @@
     </row>
     <row r="469" spans="1:3" ht="21">
       <c r="A469" s="5" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>4</v>
@@ -6822,10 +6822,10 @@
     </row>
     <row r="472" spans="1:3" ht="21">
       <c r="A472" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>4</v>
@@ -6833,10 +6833,10 @@
     </row>
     <row r="473" spans="1:3" ht="21">
       <c r="A473" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>4</v>
@@ -6844,10 +6844,10 @@
     </row>
     <row r="474" spans="1:3" ht="21">
       <c r="A474" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>4</v>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="475" spans="1:3" ht="21">
       <c r="A475" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>4</v>
@@ -6866,10 +6866,10 @@
     </row>
     <row r="476" spans="1:3" ht="21">
       <c r="A476" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
@@ -6877,10 +6877,10 @@
     </row>
     <row r="477" spans="1:3" ht="21">
       <c r="A477" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
@@ -6888,10 +6888,10 @@
     </row>
     <row r="478" spans="1:3" ht="21">
       <c r="A478" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
@@ -6899,10 +6899,10 @@
     </row>
     <row r="479" spans="1:3" ht="21">
       <c r="A479" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>4</v>
@@ -6910,10 +6910,10 @@
     </row>
     <row r="480" spans="1:3" ht="21">
       <c r="A480" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
@@ -6921,10 +6921,10 @@
     </row>
     <row r="481" spans="1:3" ht="21">
       <c r="A481" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>4</v>
@@ -6980,19 +6980,19 @@
     <hyperlink ref="B53" r:id="rId46" xr:uid="{FDE181B1-57B0-7C4B-A189-C7C6E4EAEF99}"/>
     <hyperlink ref="B56" r:id="rId47" xr:uid="{FE85FD72-4FC9-334E-8205-9E8B238954EB}"/>
     <hyperlink ref="B57" r:id="rId48" xr:uid="{7630AD76-7E6B-8C4A-BA33-A62EBB042215}"/>
-    <hyperlink ref="B58" r:id="rId49" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
+    <hyperlink ref="B58" r:id="rId49" display="Find Duplicate characters in a string" xr:uid="{2A738B70-CBF0-CC40-8B05-A271822B3F1A}"/>
     <hyperlink ref="B60" r:id="rId50" xr:uid="{B2DE2D9E-8371-CD44-9D0D-4D6DC64AC29B}"/>
-    <hyperlink ref="B61" r:id="rId51" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
+    <hyperlink ref="B61" r:id="rId51" display="Write a Program to check whether a string is a valid shuffle of two strings or not" xr:uid="{265DCD11-17A0-654E-BEFE-FABA31210C6E}"/>
     <hyperlink ref="B62" r:id="rId52" display="Count and Say problem" xr:uid="{47F1BB0C-0C5C-0845-8EEC-1560C50D7DA7}"/>
     <hyperlink ref="B63" r:id="rId53" xr:uid="{8E0BFA2E-CCB4-514F-86CD-78176C6CC98A}"/>
     <hyperlink ref="B64" r:id="rId54" display="Find Longest Recurring Subsequence in String" xr:uid="{E4DEFB4B-749F-8746-97C7-F2B433664A74}"/>
     <hyperlink ref="B65" r:id="rId55" xr:uid="{8301BDBD-EB7E-7D41-A777-ED99C3F9D67D}"/>
     <hyperlink ref="B66" r:id="rId56" xr:uid="{927AE532-647F-AF4C-A567-40ADA6FCE534}"/>
-    <hyperlink ref="B67" r:id="rId57" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
+    <hyperlink ref="B67" r:id="rId57" display="Split the Binary string into two substring with equal 0’s and 1’s" xr:uid="{05489F52-CC92-EC44-9AD3-773DEC3B1D36}"/>
     <hyperlink ref="B68" r:id="rId58" xr:uid="{13025DF6-C30E-014A-B66C-68C4AAAC1C6E}"/>
     <hyperlink ref="B69" r:id="rId59" xr:uid="{BEE1F613-C189-B949-A225-0E0C5AFD1532}"/>
     <hyperlink ref="B70" r:id="rId60" xr:uid="{1DFECD6C-D7CC-0340-B29B-4D56E50711E5}"/>
-    <hyperlink ref="B71" r:id="rId61" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
+    <hyperlink ref="B71" r:id="rId61" display="Balanced Parenthesis problem.[Imp]" xr:uid="{70BED156-B004-E043-BF7D-59EFAA9EADAF}"/>
     <hyperlink ref="B72" r:id="rId62" xr:uid="{FF9CBAFB-900E-E242-8B33-EDF46F0F40B5}"/>
     <hyperlink ref="B73" r:id="rId63" xr:uid="{19461114-B3E8-9042-8029-100010946A04}"/>
     <hyperlink ref="B74" r:id="rId64" xr:uid="{00F71118-E30B-A84E-819E-FFA902C70502}"/>
@@ -7002,9 +7002,9 @@
     <hyperlink ref="B78" r:id="rId68" xr:uid="{85886847-1510-AA46-B10C-F3D80591DD74}"/>
     <hyperlink ref="B79" r:id="rId69" xr:uid="{F60808FC-F09D-FC44-B2DD-752E55A1C698}"/>
     <hyperlink ref="B80" r:id="rId70" xr:uid="{16B2725E-1AD5-0441-9B5B-B6B2F458091B}"/>
-    <hyperlink ref="B81" r:id="rId71" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
-    <hyperlink ref="B82" r:id="rId72" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
-    <hyperlink ref="B83" r:id="rId73" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
+    <hyperlink ref="B81" r:id="rId71" display="Converting Roman Numerals to Decimal" xr:uid="{8440D753-5DE9-3243-97C2-C09D195C325F}"/>
+    <hyperlink ref="B82" r:id="rId72" display="Longest Common Prefix" xr:uid="{AC63A963-B6CC-6E4E-B72A-7F472BC4C027}"/>
+    <hyperlink ref="B83" r:id="rId73" display="Number of flips to make binary string alternate" xr:uid="{B21B87F1-A0C0-7F4E-B36F-912B871D0EF4}"/>
     <hyperlink ref="B84" r:id="rId74" xr:uid="{789FFFAC-8B7E-0540-98B8-856430EB56F8}"/>
     <hyperlink ref="B85" r:id="rId75" xr:uid="{4A0E959E-22F4-6948-A819-76FE76AB9F6D}"/>
     <hyperlink ref="B86" r:id="rId76" xr:uid="{78B76678-D8EE-9745-98B1-DF7A76EA3B10}"/>
@@ -7020,18 +7020,18 @@
     <hyperlink ref="B96" r:id="rId86" xr:uid="{F152A9AF-5CBA-EC44-A9CF-07AB481435AB}"/>
     <hyperlink ref="B97" r:id="rId87" xr:uid="{346CA74F-60B7-0A4B-A612-9184D4DCFF62}"/>
     <hyperlink ref="B98" r:id="rId88" xr:uid="{8C653CB1-4954-754F-8D46-F09141A2FCDB}"/>
-    <hyperlink ref="B101" r:id="rId89" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
-    <hyperlink ref="B102" r:id="rId90" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
+    <hyperlink ref="B101" r:id="rId89" display="Find first and last positions of an element in a sorted array" xr:uid="{5989F693-2A61-A346-8395-8674307A4CC2}"/>
+    <hyperlink ref="B102" r:id="rId90" display="Find a Fixed Point (Value equal to index) in a given array" xr:uid="{3AD10C9E-4F6D-DE48-92F3-531A586520C6}"/>
     <hyperlink ref="B103" r:id="rId91" xr:uid="{4FA217C0-A1F3-904E-8FEA-EA4941273A67}"/>
     <hyperlink ref="B104" r:id="rId92" xr:uid="{A297BBC0-FA0D-2D46-9C49-3932193EF1D3}"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
-    <hyperlink ref="B107" r:id="rId94" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
-    <hyperlink ref="B108" r:id="rId95" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
+    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance" xr:uid="{DCD751DE-E440-F346-B6FD-CBD072217214}"/>
+    <hyperlink ref="B107" r:id="rId94" display="Find the repeating and the missing" xr:uid="{B2FD38B9-1E2B-8140-8291-F45734C98145}"/>
+    <hyperlink ref="B108" r:id="rId95" display="find majority element" xr:uid="{C76888B3-18AC-9B48-9E2A-64A7DF0902B7}"/>
     <hyperlink ref="B109" r:id="rId96" xr:uid="{18A79860-6C9E-A941-8D6C-360B9913E941}"/>
-    <hyperlink ref="B110" r:id="rId97" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
-    <hyperlink ref="B111" r:id="rId98" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
-    <hyperlink ref="B113" r:id="rId99" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
-    <hyperlink ref="B114" r:id="rId100" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
+    <hyperlink ref="B110" r:id="rId97" display="find a pair with a given difference" xr:uid="{C0DDFD68-CBC1-0F4A-AF40-ACF36BBC8453}"/>
+    <hyperlink ref="B111" r:id="rId98" display="find four elements that sum to a given value" xr:uid="{3E0BF737-E42E-C946-B32C-06882E0BA6FF}"/>
+    <hyperlink ref="B113" r:id="rId99" display="Count triplet with sum smaller than a given value" xr:uid="{862F9782-C57B-2848-A2D9-EB7B52FB7EC7}"/>
+    <hyperlink ref="B114" r:id="rId100" display="merge 2 sorted arrays" xr:uid="{230D7A6A-D2C5-C140-9A65-B1F407D22062}"/>
     <hyperlink ref="B115" r:id="rId101" xr:uid="{BDC2BA28-4562-984E-8282-1126BF952EAF}"/>
     <hyperlink ref="B116" r:id="rId102" xr:uid="{B53A5F28-6DED-3D47-8679-F78D3DDEFF01}"/>
     <hyperlink ref="B117" r:id="rId103" xr:uid="{C57D0CC7-DA2F-0948-9BCE-F19C20C7D981}"/>
@@ -7071,9 +7071,9 @@
     <hyperlink ref="B151" r:id="rId137" display="Merge Sort For Linked lists.[Very Important]" xr:uid="{7F5E6966-850D-4F49-B2A5-678365713F28}"/>
     <hyperlink ref="B152" r:id="rId138" xr:uid="{E9C4286D-8493-9A47-8B8C-09583FA72B70}"/>
     <hyperlink ref="B153" r:id="rId139" display="Find the middle Element of a linked list." xr:uid="{9EB0123C-84AE-1C4D-BA1A-C28CFB8EFB89}"/>
-    <hyperlink ref="B154" r:id="rId140" xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
+    <hyperlink ref="B154" r:id="rId140" display="Check if a linked list is a circular linked list." xr:uid="{9D11FED4-328F-674E-889D-EC781DD1D791}"/>
     <hyperlink ref="B155" r:id="rId141" xr:uid="{48AE72DB-397B-464D-88AD-B8058ED29CC1}"/>
-    <hyperlink ref="B156" r:id="rId142" xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
+    <hyperlink ref="B156" r:id="rId142" display="Write a Program to check whether the Singly Linked list is a palindrome or not." xr:uid="{152D50E9-7448-F542-AC66-05D0AE66664C}"/>
     <hyperlink ref="B157" r:id="rId143" xr:uid="{34E6AF1B-5FB1-3A4B-8938-1DCF80831DC2}"/>
     <hyperlink ref="B158" r:id="rId144" xr:uid="{E7F8B7CA-49F4-1946-91EE-E7582BE4E5DA}"/>
     <hyperlink ref="B159" r:id="rId145" xr:uid="{3590A994-B7A2-C14D-9BF8-7AC8FE9E7F0F}"/>
@@ -7082,7 +7082,7 @@
     <hyperlink ref="B162" r:id="rId148" xr:uid="{4C0F816E-F043-0C47-BF16-1CDAD88D2FF1}"/>
     <hyperlink ref="B163" r:id="rId149" xr:uid="{A8E4C654-D0BD-8945-9F5C-B09F7BC114BE}"/>
     <hyperlink ref="B166" r:id="rId150" xr:uid="{E3825C15-10BB-E24F-B229-983F651DA942}"/>
-    <hyperlink ref="B167" r:id="rId151" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
+    <hyperlink ref="B167" r:id="rId151" display="Sort a LL of 0's, 1's and 2's" xr:uid="{46ECFC31-388C-6241-8FFE-DED6F2FC794A}"/>
     <hyperlink ref="B168" r:id="rId152" xr:uid="{589E024D-3FE1-1048-890C-88289733F233}"/>
     <hyperlink ref="B169" r:id="rId153" xr:uid="{CDA28F7A-7FC5-F74D-B27E-A6E0161D41D5}"/>
     <hyperlink ref="B170" r:id="rId154" xr:uid="{DA6A0D92-DCEB-DA4F-8BBA-10FCD092838F}"/>
@@ -7090,19 +7090,19 @@
     <hyperlink ref="B172" r:id="rId156" xr:uid="{DED7AC9B-40D7-0545-9D6F-6CD4F5FFE4C6}"/>
     <hyperlink ref="B173" r:id="rId157" xr:uid="{6947A4E1-B6AA-6D4F-A6D8-8FA74FD02887}"/>
     <hyperlink ref="B174" r:id="rId158" xr:uid="{EABF2012-5A90-0C4E-86F6-FDB5FA7770BE}"/>
-    <hyperlink ref="B177" r:id="rId159" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
+    <hyperlink ref="B177" r:id="rId159" display="level order traversal" xr:uid="{7F44CFE0-9ED1-A44D-B9EF-CF87BEB644FC}"/>
     <hyperlink ref="B178" r:id="rId160" xr:uid="{CF6E0CF6-7A93-D84A-9CE0-5BDD51767416}"/>
-    <hyperlink ref="B179" r:id="rId161" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
-    <hyperlink ref="B180" r:id="rId162" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
-    <hyperlink ref="B181" r:id="rId163" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
+    <hyperlink ref="B179" r:id="rId161" display="Height of a tree" xr:uid="{EFF8F154-60B8-B84B-84CA-32756BD6430F}"/>
+    <hyperlink ref="B180" r:id="rId162" display="Diameter of a tree" xr:uid="{C8A3094E-E11B-2543-B05E-1D07048B2EBA}"/>
+    <hyperlink ref="B181" r:id="rId163" display="Mirror of a tree" xr:uid="{9961E5F5-B5C6-0C4D-A1D0-D04D2A5D7DFD}"/>
     <hyperlink ref="B182" r:id="rId164" xr:uid="{44E289EC-47DD-D94D-88C1-CB2F59C6C16A}"/>
     <hyperlink ref="B183" r:id="rId165" xr:uid="{4161FC70-DD6D-684B-898A-A4711596B2D5}"/>
     <hyperlink ref="B184" r:id="rId166" xr:uid="{B9CBE387-8E9A-ED48-8310-CF7D34FA690C}"/>
     <hyperlink ref="B185" r:id="rId167" xr:uid="{5398097B-24FF-9543-8F02-33CE2860F1F7}"/>
-    <hyperlink ref="B186" r:id="rId168" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
+    <hyperlink ref="B186" r:id="rId168" display="Right View of Tree" xr:uid="{3B1FC30B-30C8-7B48-AF94-A81FB513F24F}"/>
     <hyperlink ref="B187" r:id="rId169" xr:uid="{32B750D0-D7F2-694D-AB9B-25AFAFAFF17F}"/>
-    <hyperlink ref="B188" r:id="rId170" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
-    <hyperlink ref="B189" r:id="rId171" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
+    <hyperlink ref="B188" r:id="rId170" display="Bottom View of a tree" xr:uid="{400689DD-8E95-024E-976B-AACD8ED4E1A6}"/>
+    <hyperlink ref="B189" r:id="rId171" display="Zig-Zag traversal of a binary tree" xr:uid="{28753DDE-E047-5D40-A30B-1103BE6DA08F}"/>
     <hyperlink ref="B190" r:id="rId172" xr:uid="{6C5AA6CB-3D93-0740-AEED-9E6C218CF6CB}"/>
     <hyperlink ref="B191" r:id="rId173" xr:uid="{03EAA2B9-D8B8-D642-BF24-380596D26B2E}"/>
     <hyperlink ref="B192" r:id="rId174" xr:uid="{8C1719B4-37CC-484E-BDCE-A4272C07F91B}"/>
@@ -7115,7 +7115,7 @@
     <hyperlink ref="B199" r:id="rId181" xr:uid="{B42A3009-E8EB-EE44-885F-6699C17A0E0B}"/>
     <hyperlink ref="B200" r:id="rId182" xr:uid="{ED3E48AB-E25B-3744-B024-E97B2A319B46}"/>
     <hyperlink ref="B201" r:id="rId183" xr:uid="{C75D20A3-CBAE-2649-A3EE-E49177CFA343}"/>
-    <hyperlink ref="B202" r:id="rId184" xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
+    <hyperlink ref="B202" r:id="rId184" display="Sum of Nodes on the Longest path from root to leaf node " xr:uid="{3863CA1B-D43E-1144-91A9-17C2DCF52A64}"/>
     <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{E9AF434E-4CAA-5D49-8AD3-889CDE2913D9}"/>
     <hyperlink ref="B204" r:id="rId186" xr:uid="{1A0568E5-3A11-7F47-8001-82B05D7C2339}"/>
     <hyperlink ref="B205" r:id="rId187" xr:uid="{F62B8AE4-9C4F-9544-8861-CD733C12F79E}"/>
@@ -7145,9 +7145,9 @@
     <hyperlink ref="B231" r:id="rId211" xr:uid="{918B420D-3678-FD46-9463-595E8ACC39E1}"/>
     <hyperlink ref="B232" r:id="rId212" xr:uid="{851A7153-3B54-0E4A-A0A0-FCEB091AFE70}"/>
     <hyperlink ref="B233" r:id="rId213" xr:uid="{C03AE9F8-09AE-C640-81A7-033BB06FB6AD}"/>
-    <hyperlink ref="B234" r:id="rId214" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
-    <hyperlink ref="B235" r:id="rId215" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
-    <hyperlink ref="B238" r:id="rId216" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
+    <hyperlink ref="B234" r:id="rId214" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]" xr:uid="{35140DEB-52D2-4342-88D2-22BA061E5B48}"/>
+    <hyperlink ref="B235" r:id="rId215" display="Flatten BST to sorted list" xr:uid="{9714BC0B-3373-934C-B7A1-599F74F4FB9D}"/>
+    <hyperlink ref="B238" r:id="rId216" display="Activity Selection Problem" xr:uid="{5CB435B2-7FD2-1D44-9872-22B6A1EDC02B}"/>
     <hyperlink ref="B239" r:id="rId217" display="Job SequencingProblem" xr:uid="{722D1D95-896B-4642-BABD-31DEDD237B49}"/>
     <hyperlink ref="B240" r:id="rId218" display="Huffman Coding" xr:uid="{D686D1DC-13D6-284C-B606-E087FAF47399}"/>
     <hyperlink ref="B241" r:id="rId219" xr:uid="{D22C2394-C3CB-8F4F-A010-2B13C8C84D1A}"/>
@@ -7206,24 +7206,24 @@
     <hyperlink ref="B298" r:id="rId272" xr:uid="{7536415C-140B-9244-B0B2-23F3ED0B2D80}"/>
     <hyperlink ref="B299" r:id="rId273" xr:uid="{7DBDA456-8AF6-DD43-9764-17D3959B8E8F}"/>
     <hyperlink ref="B300" r:id="rId274" xr:uid="{BFC149AB-C15A-B648-9F6A-ECD3890B1918}"/>
-    <hyperlink ref="B301" r:id="rId275" xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
+    <hyperlink ref="B301" r:id="rId275" display="Check the expression has valid or Balanced parenthesis or not." xr:uid="{0482240B-FEE9-F746-8980-52BCB7BBB56E}"/>
     <hyperlink ref="B302" r:id="rId276" xr:uid="{86D1231A-E7C8-4B45-99ED-2DB0EF71E190}"/>
     <hyperlink ref="B303" r:id="rId277" xr:uid="{20B7CE89-CB37-0040-989F-C8D1BE2B8782}"/>
     <hyperlink ref="B304" r:id="rId278" xr:uid="{4C8412C9-A47B-9244-A18B-741516BD1054}"/>
     <hyperlink ref="B305" r:id="rId279" display="The celebrity Problem" xr:uid="{511761D9-31CE-0B43-AFFD-C011C27ACC52}"/>
     <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{6905F997-D048-1049-BA27-C48756603D1E}"/>
     <hyperlink ref="B307" r:id="rId281" display="Evaluation of Postfix expression" xr:uid="{E657AA82-7CFE-DB42-B20F-F63D8C25EAB6}"/>
-    <hyperlink ref="B308" r:id="rId282" xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
-    <hyperlink ref="B309" r:id="rId283" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
-    <hyperlink ref="B310" r:id="rId284" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
-    <hyperlink ref="B311" r:id="rId285" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
+    <hyperlink ref="B308" r:id="rId282" display="Implement a method to insert an element at its bottom without using any other data structure." xr:uid="{3E505033-58F3-8F4E-AB82-E12DBC226AEA}"/>
+    <hyperlink ref="B309" r:id="rId283" display="Reverse a stack using recursion" xr:uid="{749599E5-4972-7343-B13B-87E26F837470}"/>
+    <hyperlink ref="B310" r:id="rId284" display="Sort a Stack using recursion" xr:uid="{12AA88DC-22AB-5A49-B28C-F04C8E35A215}"/>
+    <hyperlink ref="B311" r:id="rId285" display="Merge Overlapping Intervals" xr:uid="{5751F0A7-7D9D-4148-820B-5B9659DFE34F}"/>
     <hyperlink ref="B312" r:id="rId286" xr:uid="{4CA2DBEE-B161-B84D-B3A9-B8BC1B598AF2}"/>
-    <hyperlink ref="B313" r:id="rId287" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
+    <hyperlink ref="B313" r:id="rId287" display="Length of the Longest Valid Substring" xr:uid="{A9C1E578-6594-954C-8785-8902E605FC7A}"/>
     <hyperlink ref="B314" r:id="rId288" xr:uid="{3D45E9B8-6671-A747-8C18-51CF8883170A}"/>
     <hyperlink ref="B315" r:id="rId289" xr:uid="{4F5EF748-8CD4-0F47-90CE-3C93755BF63D}"/>
     <hyperlink ref="B316" r:id="rId290" xr:uid="{44053C08-5050-C84B-B016-069B1EF9A43D}"/>
     <hyperlink ref="B317" r:id="rId291" xr:uid="{ABF38928-736B-1A49-8B8A-1DCA5AAECB2B}"/>
-    <hyperlink ref="B318" r:id="rId292" xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
+    <hyperlink ref="B318" r:id="rId292" display="Implement Queue using Stack  " xr:uid="{52651FAF-F3DC-E949-8AF8-998B9724B7D1}"/>
     <hyperlink ref="B319" r:id="rId293" xr:uid="{91C6CCEF-3FF7-2C42-B5A0-8F4A403ED198}"/>
     <hyperlink ref="B320" r:id="rId294" xr:uid="{15C8AF08-1A79-F949-9BE7-DD240CBD9861}"/>
     <hyperlink ref="B321" r:id="rId295" xr:uid="{1904F984-5B22-8D46-BC33-3073B390E8F9}"/>
@@ -7242,7 +7242,7 @@
     <hyperlink ref="B336" r:id="rId308" xr:uid="{B21618F4-70E2-C549-80B7-7CF915679E0A}"/>
     <hyperlink ref="B337" r:id="rId309" xr:uid="{EEDFBF11-C1E4-0847-9D56-94A72D97AEE7}"/>
     <hyperlink ref="B338" r:id="rId310" xr:uid="{F5C0EDF1-7EAC-8849-8D27-C3389913BFC6}"/>
-    <hyperlink ref="B339" r:id="rId311" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
+    <hyperlink ref="B339" r:id="rId311" display="“k” largest element in an array" xr:uid="{50175B29-124F-4E4E-8E98-961BD3320359}"/>
     <hyperlink ref="B340" r:id="rId312" xr:uid="{1BE23822-8512-014F-9154-F6EDA4FC8428}"/>
     <hyperlink ref="B341" r:id="rId313" xr:uid="{38EC228E-ABFF-3542-9CFB-3DDFC628E9D0}"/>
     <hyperlink ref="B342" r:id="rId314" xr:uid="{73F240F8-C469-454E-BA5C-CFF2F7A7A5F6}"/>
@@ -7250,7 +7250,7 @@
     <hyperlink ref="B344" r:id="rId316" xr:uid="{F9751D9B-2689-E24B-9FC3-CA32FE888708}"/>
     <hyperlink ref="B345" r:id="rId317" xr:uid="{73C61D6A-D97C-B944-8B27-BB91564AB0D7}"/>
     <hyperlink ref="B346" r:id="rId318" xr:uid="{936E077C-C016-A04F-895A-782D6D9D9433}"/>
-    <hyperlink ref="B347" r:id="rId319" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
+    <hyperlink ref="B347" r:id="rId319" display="Median in a stream of Integers" xr:uid="{5454A2A1-6607-BE48-9215-CB8965EC3568}"/>
     <hyperlink ref="B348" r:id="rId320" xr:uid="{FC1EAA10-F7ED-6B42-A79B-3D8B44E2C8B3}"/>
     <hyperlink ref="B349" r:id="rId321" xr:uid="{FDB7F712-4A42-1048-8929-A1E752B07C6A}"/>
     <hyperlink ref="B350" r:id="rId322" xr:uid="{AF3ACA60-0B0E-E146-B51F-A2CD05EB6549}"/>
@@ -7306,7 +7306,7 @@
     <hyperlink ref="B405" r:id="rId372" xr:uid="{A36160A8-F45E-3443-9645-42C1004B8F8C}"/>
     <hyperlink ref="B406" r:id="rId373" xr:uid="{8B0A00A3-6AC0-DF46-AD87-A4DA016A2A00}"/>
     <hyperlink ref="B407" r:id="rId374" xr:uid="{62A81CB4-A961-C543-B31C-92059DB6C105}"/>
-    <hyperlink ref="B410" r:id="rId375" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
+    <hyperlink ref="B410" r:id="rId375" display="Coin ChangeProblem" xr:uid="{08030975-009C-C34A-A875-72FE2718F44C}"/>
     <hyperlink ref="B411" r:id="rId376" xr:uid="{A113C7A9-2359-B643-9C08-E845813439C0}"/>
     <hyperlink ref="B412" r:id="rId377" xr:uid="{FE300343-4633-AD47-A64D-2086629EB398}"/>
     <hyperlink ref="B413" r:id="rId378" xr:uid="{4FC9F782-D38F-C642-A863-887B17AD05CD}"/>
@@ -7380,5 +7380,6 @@
     <hyperlink ref="B2" r:id="rId446" xr:uid="{E07D4FE5-46C7-AC4D-9E01-2300AA43B58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId447"/>
 </worksheet>
 </file>